--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail15 Features.xlsx
@@ -4434,7 +4434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,29 +4445,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4488,115 +4486,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4613,72 +4601,66 @@
         <v>5.072586692250988e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.854589627655913</v>
+        <v>2.240706090035128e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.480885018500592</v>
+        <v>5.359641244111026e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.240706090035128e-06</v>
+        <v>0.02409641209199633</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.359641244111026e-06</v>
+        <v>0.2414992502733609</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.02409641209199633</v>
+        <v>0.05883312639919466</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2414992502733609</v>
+        <v>1.703012512799178</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05883312639919466</v>
+        <v>1.642956198904609</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.635079881725485</v>
+        <v>4.17656997315736</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.642956198904609</v>
+        <v>1.760540212990641e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.17656997315736</v>
+        <v>26699838.09719978</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.760540212990641e-14</v>
+        <v>4.250790042796281e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>26699838.09719978</v>
+        <v>12.550562915418</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.250790042796281e-06</v>
+        <v>0.0001407662712049596</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>12.550562915418</v>
+        <v>9.862590941311291</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001407662712049596</v>
+        <v>1.190172535466396</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.862590941311291</v>
+        <v>0.01369243374714319</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.190172535466396</v>
+        <v>2.945166595909028</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01369243374714319</v>
+        <v>0.9530267211277224</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.945166595909028</v>
+        <v>1.800459006051407</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9530267211277224</v>
+        <v>11</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.800459006051407</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1860676066028345</v>
       </c>
     </row>
@@ -4693,72 +4675,66 @@
         <v>4.966765783290935e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.9514271809001492</v>
+        <v>1.759381665446631e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.5016878852757074</v>
+        <v>5.367713155962725e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.759381665446631e-06</v>
+        <v>0.008424719714052332</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.367713155962725e-06</v>
+        <v>0.2136678061551609</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.008424719714052332</v>
+        <v>0.04567338391950813</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2136678061551609</v>
+        <v>1.702447228280909</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04567338391950813</v>
+        <v>1.641740424559994</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.632928133714927</v>
+        <v>4.017609548792455</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.641740424559994</v>
+        <v>1.902611064086408e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.017609548792455</v>
+        <v>25458787.35554077</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.902611064086408e-14</v>
+        <v>4.472854617240067e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>25458787.35554077</v>
+        <v>12.33177082673205</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.472854617240067e-06</v>
+        <v>0.0001338107472623471</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>12.33177082673205</v>
+        <v>9.661140810638923</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001338107472623471</v>
+        <v>1.180830778199407</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.661140810638923</v>
+        <v>0.01248957959201134</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.180830778199407</v>
+        <v>2.915490197449601</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01248957959201134</v>
+        <v>0.9518535960548891</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.915490197449601</v>
+        <v>1.771328699730955</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9518535960548891</v>
+        <v>11</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.771328699730955</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1925587552890464</v>
       </c>
     </row>
@@ -4773,72 +4749,66 @@
         <v>4.959461342382276e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.9572664006449437</v>
+        <v>1.593427048222482e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.4989080402771746</v>
+        <v>5.36826055474311e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.593427048222482e-06</v>
+        <v>-0.005918470012272093</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.36826055474311e-06</v>
+        <v>0.1841043147741128</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.005918470012272093</v>
+        <v>0.03388601750928996</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1841043147741128</v>
+        <v>1.691651371676183</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03388601750928996</v>
+        <v>1.624378486422306</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.615963157741443</v>
+        <v>4.028091910575879</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.624378486422306</v>
+        <v>1.892721564117295e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.028091910575879</v>
+        <v>25304316.91325289</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.892721564117295e-14</v>
+        <v>4.476309368942299e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>25304316.91325289</v>
+        <v>12.11925619417197</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.476309368942299e-06</v>
+        <v>0.0001287455016567775</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>12.11925619417197</v>
+        <v>8.173914978213807</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001287455016567775</v>
+        <v>1.280645921473367</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.173914978213807</v>
+        <v>0.008601858534356775</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.280645921473367</v>
+        <v>3.066130260907924</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008601858534356775</v>
+        <v>0.950704154270028</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.066130260907924</v>
+        <v>1.806092182127108</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.950704154270028</v>
+        <v>14</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.806092182127108</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1892719783010391</v>
       </c>
     </row>
@@ -4853,72 +4823,66 @@
         <v>4.984791805066731e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.9716271719035666</v>
+        <v>1.593427048222482e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.4937218065327116</v>
+        <v>5.361933827929785e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.593427048222482e-06</v>
+        <v>-0.01920217522189632</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.361933827929785e-06</v>
+        <v>0.1510379760814275</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01920217522189632</v>
+        <v>0.02314409103154768</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1510379760814275</v>
+        <v>1.693963168964929</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02314409103154768</v>
+        <v>1.595597261475082</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.613651439746234</v>
+        <v>4.038123378265858</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.595597261475082</v>
+        <v>1.883329482669052e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.038123378265858</v>
+        <v>25441565.12275201</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.883329482669052e-14</v>
+        <v>4.461135588838854e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>25441565.12275201</v>
+        <v>12.19028768504089</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.461135588838854e-06</v>
+        <v>0.0001265568560295832</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>12.19028768504089</v>
+        <v>7.587933372665217</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001265568560295832</v>
+        <v>1.346861883847719</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.587933372665217</v>
+        <v>0.007286730292230073</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.346861883847719</v>
+        <v>3.107838961708453</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.007286730292230073</v>
+        <v>0.950574805012583</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.107838961708453</v>
+        <v>1.811479860387397</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.950574805012583</v>
+        <v>14</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.811479860387397</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1942299451011919</v>
       </c>
     </row>
@@ -4933,72 +4897,66 @@
         <v>4.98839568726148e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.028999125861753</v>
+        <v>1.593427048222482e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.4002211045111146</v>
+        <v>5.349387120905881e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.593427048222482e-06</v>
+        <v>-0.03056802408597478</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.349387120905881e-06</v>
+        <v>0.1190689103562304</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03056802408597478</v>
+        <v>0.01508702757658518</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1190689103562304</v>
+        <v>1.69511792316772</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01508702757658518</v>
+        <v>1.56549293089402</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.611674938330071</v>
+        <v>4.007164448442151</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.56549293089402</v>
+        <v>1.912542707394067e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.007164448442151</v>
+        <v>24821337.0137032</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.912542707394067e-14</v>
+        <v>4.556213386067677e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>24821337.0137032</v>
+        <v>11.78315211793234</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.556213386067677e-06</v>
+        <v>0.0001278614438088731</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>11.78315211793234</v>
+        <v>7.603918069125922</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001278614438088731</v>
+        <v>1.360493929478415</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.603918069125922</v>
+        <v>0.00739289370086133</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.360493929478415</v>
+        <v>3.120362906976498</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00739289370086133</v>
+        <v>0.9489467669334578</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.120362906976498</v>
+        <v>1.788568112731727</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9489467669334578</v>
+        <v>14</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.788568112731727</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1958595806088047</v>
       </c>
     </row>
@@ -5013,72 +4971,66 @@
         <v>4.933577618789865e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.119327393158139</v>
+        <v>1.593427048222482e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.1863637863036107</v>
+        <v>5.331941798929052e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.593427048222482e-06</v>
+        <v>-0.03911550287200725</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.331941798929052e-06</v>
+        <v>0.09574931741085874</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03911550287200725</v>
+        <v>0.01068536487240378</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.09574931741085874</v>
+        <v>1.677264504959093</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01068536487240378</v>
+        <v>1.543111692534076</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.597169496900986</v>
+        <v>3.975493941683263</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.543111692534076</v>
+        <v>1.943136372396875e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.975493941683263</v>
+        <v>23584798.87815556</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.943136372396875e-14</v>
+        <v>4.733722759472854e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>23584798.87815556</v>
+        <v>10.80855496328524</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.733722759472854e-06</v>
+        <v>0.0001354209738279105</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>10.80855496328524</v>
+        <v>9.094332126542625</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001354209738279105</v>
+        <v>1.224754124206886</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.094332126542625</v>
+        <v>0.01120024580229457</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.224754124206886</v>
+        <v>2.985404892477042</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01120024580229457</v>
+        <v>0.9454500033599486</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.985404892477042</v>
+        <v>1.817274365953152</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9454500033599486</v>
+        <v>14</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.817274365953152</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2000551654797916</v>
       </c>
     </row>
@@ -5093,72 +5045,66 @@
         <v>4.808156545955001e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.220584893035694</v>
+        <v>1.593427048222482e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.1090728747855203</v>
+        <v>5.31124201955191e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.593427048222482e-06</v>
+        <v>-0.04554551269141668</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5.31124201955191e-06</v>
+        <v>0.08290098517031347</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.04554551269141668</v>
+        <v>0.008941555707781981</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.08290098517031347</v>
+        <v>1.626157397761644</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.008941555707781981</v>
+        <v>1.518660964681354</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.538294195683039</v>
+        <v>4.048650711535553</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.518660964681354</v>
+        <v>1.867530877582018e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.048650711535553</v>
+        <v>25201727.29793174</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.867530877582018e-14</v>
+        <v>4.361304459268307e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>25201727.29793174</v>
+        <v>11.86119393495577</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.361304459268307e-06</v>
+        <v>0.0001534350554008617</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>11.86119393495577</v>
+        <v>10.14273696804949</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001534350554008617</v>
+        <v>1.187760812794179</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.14273696804949</v>
+        <v>0.01578464869367802</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.187760812794179</v>
+        <v>2.843082794032609</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01578464869367802</v>
+        <v>0.9447144375223976</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.843082794032609</v>
+        <v>1.844114204628976</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9447144375223976</v>
+        <v>15</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.844114204628976</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1959897346206272</v>
       </c>
     </row>
@@ -5173,72 +5119,66 @@
         <v>4.616939738161821e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.315656953529673</v>
+        <v>1.593427048222482e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.4262565834677479</v>
+        <v>5.288408229339525e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.593427048222482e-06</v>
+        <v>-0.05115167605228641</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>5.288408229339525e-06</v>
+        <v>0.0785027039804721</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05115167605228641</v>
+        <v>0.008777732777363847</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.0785027039804721</v>
+        <v>1.68761195042906</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.008777732777363847</v>
+        <v>1.623305628190951</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.600218067086759</v>
+        <v>3.784486505958556</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.623305628190951</v>
+        <v>1.902124023726076e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.784486505958556</v>
+        <v>24209265.32403217</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.902124023726076e-14</v>
+        <v>4.664216829981398e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>24209265.32403217</v>
+        <v>11.14813068243888</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.664216829981398e-06</v>
+        <v>0.0001662701406596732</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>11.14813068243888</v>
+        <v>9.111680175784997</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001662701406596732</v>
+        <v>1.381727240575388</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.111680175784997</v>
+        <v>0.0138041986050487</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.381727240575388</v>
+        <v>2.893130312878498</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0138041986050487</v>
+        <v>0.9516934208226677</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.893130312878498</v>
+        <v>1.75276248824123</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9516934208226677</v>
+        <v>14</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.75276248824123</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1864068013571333</v>
       </c>
     </row>
@@ -5253,72 +5193,66 @@
         <v>4.372024990885464e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1.392694021259815</v>
+        <v>1.593427048222482e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.7025973341435083</v>
+        <v>5.264248995063496e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.593427048222482e-06</v>
+        <v>-0.0561292890170753</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>5.264248995063496e-06</v>
+        <v>0.08004035793317756</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.0561292890170753</v>
+        <v>0.009557225140882022</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.08004035793317756</v>
+        <v>1.695225201274534</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.009557225140882022</v>
+        <v>1.559459069870493</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.608773103794929</v>
+        <v>4.064103066629581</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.559459069870493</v>
+        <v>1.352687894187185e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.064103066629581</v>
+        <v>33898184.76796132</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.352687894187185e-14</v>
+        <v>3.350186728197497e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>33898184.76796132</v>
+        <v>15.5435598034107</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.350186728197497e-06</v>
+        <v>0.0001397389434583865</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>15.5435598034107</v>
+        <v>9.0745865748607</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001397389434583865</v>
+        <v>1.421327481802764</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.0745865748607</v>
+        <v>0.01150723949484152</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.421327481802764</v>
+        <v>3.022742553213805</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01150723949484152</v>
+        <v>0.9510174716670009</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.022742553213805</v>
+        <v>1.813632235730703</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9510174716670009</v>
+        <v>14</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.813632235730703</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2164882091372832</v>
       </c>
     </row>
@@ -5333,72 +5267,66 @@
         <v>4.089953796674858e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.444872623864823</v>
+        <v>1.574818110543682e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.8832642166560047</v>
+        <v>5.239678175636398e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.574818110543682e-06</v>
+        <v>-0.05965350671736094</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>5.239678175636398e-06</v>
+        <v>0.08544063607793685</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05965350671736094</v>
+        <v>0.01085805322139365</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.08544063607793685</v>
+        <v>1.72382298290891</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01085805322139365</v>
+        <v>1.741138649574066</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.645062716773568</v>
+        <v>4.03168127545778</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.741138649574066</v>
+        <v>1.09171747815432e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.03168127545778</v>
+        <v>42283443.89933396</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.09171747815432e-14</v>
+        <v>2.709892624074508e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>42283443.89933396</v>
+        <v>19.51870355885458</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.709892624074508e-06</v>
+        <v>0.0001216123227419918</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>19.51870355885458</v>
+        <v>8.167074495663602</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001216123227419918</v>
+        <v>1.442039800044591</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.167074495663602</v>
+        <v>0.008111676407952174</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.442039800044591</v>
+        <v>3.099279868378608</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.008111676407952174</v>
+        <v>0.9537961103337604</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.099279868378608</v>
+        <v>1.784088993620987</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9537961103337604</v>
+        <v>25</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.784088993620987</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2292821386758177</v>
       </c>
     </row>
@@ -5413,72 +5341,66 @@
         <v>3.797959215007462e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.47994034757606</v>
+        <v>1.497278919306406e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.9823071417254563</v>
+        <v>5.215814130329359e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.497278919306406e-06</v>
+        <v>-0.06111863687547069</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5.215814130329359e-06</v>
+        <v>0.0902786777178846</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.06111863687547069</v>
+        <v>0.01188202199278514</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.0902786777178846</v>
+        <v>1.718253407450585</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01188202199278514</v>
+        <v>1.821368500907654</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.640925020819436</v>
+        <v>4.066641538249307</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.821368500907654</v>
+        <v>1.073027523332514e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.066641538249307</v>
+        <v>42605553.154084</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.073027523332514e-14</v>
+        <v>2.688363103268252e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>42605553.154084</v>
+        <v>19.47795141479599</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.688363103268252e-06</v>
+        <v>0.0001168387289907495</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>19.47795141479599</v>
+        <v>7.652767507102728</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001168387289907495</v>
+        <v>1.413292395675979</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.652767507102728</v>
+        <v>0.006842642698029167</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.413292395675979</v>
+        <v>3.115355642609543</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.006842642698029167</v>
+        <v>0.9543437571743856</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.115355642609543</v>
+        <v>1.764619625359426</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9543437571743856</v>
+        <v>32</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.764619625359426</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2295264456972372</v>
       </c>
     </row>
@@ -5493,72 +5415,66 @@
         <v>3.518447932548146e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.513255027799466</v>
+        <v>1.3951523269699e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1.067644099395993</v>
+        <v>5.19336051161568e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.3951523269699e-06</v>
+        <v>-0.06169016273850426</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>5.19336051161568e-06</v>
+        <v>0.09305159112995917</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.06169016273850426</v>
+        <v>0.01245888203549713</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.09305159112995917</v>
+        <v>1.723341769096312</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01245888203549713</v>
+        <v>1.743789723062859</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.643676449382405</v>
+        <v>3.970713657125721</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.743789723062859</v>
+        <v>1.125500020884223e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.970713657125721</v>
+        <v>41490473.06129746</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.125500020884223e-14</v>
+        <v>2.765629693181422e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>41490473.06129746</v>
+        <v>19.37502539835298</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.765629693181422e-06</v>
+        <v>0.0001199327340080634</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>19.37502539835298</v>
+        <v>7.891492901897324</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001199327340080634</v>
+        <v>1.454271455672747</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.891492901897324</v>
+        <v>0.00746889019242525</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.454271455672747</v>
+        <v>3.036109777397464</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.00746889019242525</v>
+        <v>0.9526086041448553</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.036109777397464</v>
+        <v>1.780845167017881</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9526086041448553</v>
+        <v>25</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.780845167017881</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.233358051072001</v>
       </c>
     </row>
@@ -5573,72 +5489,66 @@
         <v>3.259906866487047e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.553664281345487</v>
+        <v>1.292478916188135e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1.186759619923413</v>
+        <v>5.172363835560349e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.292478916188135e-06</v>
+        <v>-0.06236370926058723</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>5.172363835560349e-06</v>
+        <v>0.09508169916823232</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.06236370926058723</v>
+        <v>0.01292389730686203</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.09508169916823232</v>
+        <v>1.720382789958853</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01292389730686203</v>
+        <v>1.707900904059444</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.640874464803149</v>
+        <v>3.973041879771076</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.707900904059444</v>
+        <v>1.124181309968443e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.973041879771076</v>
+        <v>42172873.59511788</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.124181309968443e-14</v>
+        <v>2.727389035717892e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>42172873.59511788</v>
+        <v>19.99414093485388</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.727389035717892e-06</v>
+        <v>0.0001238792399924344</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>19.99414093485388</v>
+        <v>8.076595440120681</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001238792399924344</v>
+        <v>1.503025819910425</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.076595440120681</v>
+        <v>0.008080815500397609</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.503025819910425</v>
+        <v>3.054088329208266</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.008080815500397609</v>
+        <v>0.9526985477465197</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.054088329208266</v>
+        <v>1.752643612148231</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9526985477465197</v>
+        <v>25</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.752643612148231</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2332148842640168</v>
       </c>
     </row>
@@ -5653,72 +5563,66 @@
         <v>3.023279537141348e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.604541770220793</v>
+        <v>1.197837914158579e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1.365849838144745</v>
+        <v>5.152656794999823e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.197837914158579e-06</v>
+        <v>-0.06322731457893904</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>5.152656794999823e-06</v>
+        <v>0.09739526717977666</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.06322731457893904</v>
+        <v>0.01347809385612217</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.09739526717977666</v>
+        <v>1.710316458130477</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01347809385612217</v>
+        <v>1.662876501744767</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.626587957982495</v>
+        <v>4.077722943405418</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.662876501744767</v>
+        <v>1.067203441515953e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.077722943405418</v>
+        <v>42060674.37316488</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.067203441515953e-14</v>
+        <v>2.709368526488924e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>42060674.37316488</v>
+        <v>18.8798995920276</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.709368526488924e-06</v>
+        <v>0.000128988173584644</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>18.8798995920276</v>
+        <v>8.104596677397675</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.000128988173584644</v>
+        <v>1.532424212839813</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.104596677397675</v>
+        <v>0.008472522050094529</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.532424212839813</v>
+        <v>3.104359051054003</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.008472522050094529</v>
+        <v>0.9503387423982895</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.104359051054003</v>
+        <v>1.741396339889105</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9503387423982895</v>
+        <v>28</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.741396339889105</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.223882284442895</v>
       </c>
     </row>
@@ -5733,72 +5637,66 @@
         <v>2.805579612360167e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.666283523244213</v>
+        <v>1.115339063947306e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1.619411911743167</v>
+        <v>5.134105432851814e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.115339063947306e-06</v>
+        <v>-0.06421365287101141</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>5.134105432851814e-06</v>
+        <v>0.1007280843682686</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.06421365287101141</v>
+        <v>0.0142652750851048</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1007280843682686</v>
+        <v>1.711711480257039</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.0142652750851048</v>
+        <v>1.671638298099584</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.629696093120964</v>
+        <v>4.168601920484178</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.671638298099584</v>
+        <v>1.021178818660132e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.168601920484178</v>
+        <v>43987339.58038304</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.021178818660132e-14</v>
+        <v>2.582577264556984e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>43987339.58038304</v>
+        <v>19.75864644000272</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.582577264556984e-06</v>
+        <v>0.0001232037643905182</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>19.75864644000272</v>
+        <v>7.886714282524425</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001232037643905182</v>
+        <v>1.464775374627247</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.886714282524425</v>
+        <v>0.007663306445935487</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.464775374627247</v>
+        <v>3.125313352520372</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.007663306445935487</v>
+        <v>0.9506852523044197</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.125313352520372</v>
+        <v>1.794249627577556</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9506852523044197</v>
+        <v>28</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.794249627577556</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.228142516761946</v>
       </c>
     </row>
@@ -5813,72 +5711,66 @@
         <v>2.600714940748993e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.736245012310412</v>
+        <v>1.048691056176005e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1.94658170431606</v>
+        <v>5.116590058724385e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.048691056176005e-06</v>
+        <v>-0.06553201861170804</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>5.116590058724385e-06</v>
+        <v>0.1059605982669344</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.06553201861170804</v>
+        <v>0.01551941486514087</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1059605982669344</v>
+        <v>1.742659192028652</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01551941486514087</v>
+        <v>1.661516022746985</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.672486447199056</v>
+        <v>4.124816552834579</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.661516022746985</v>
+        <v>1.042973729741365e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.124816552834579</v>
+        <v>41519916.04882462</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.042973729741365e-14</v>
+        <v>2.77124154900242e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>41519916.04882462</v>
+        <v>17.97985988746673</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.77124154900242e-06</v>
+        <v>0.0001200757263936475</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>17.97985988746673</v>
+        <v>7.930327407201479</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001200757263936475</v>
+        <v>1.434657343238571</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.930327407201479</v>
+        <v>0.007551573574172105</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.434657343238571</v>
+        <v>3.021954114518198</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.007551573574172105</v>
+        <v>0.9537015913260702</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.021954114518198</v>
+        <v>1.780117919014474</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9537015913260702</v>
+        <v>25</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.780117919014474</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2459692930798499</v>
       </c>
     </row>
@@ -6255,7 +6147,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.782931459515162</v>
+        <v>1.800950738158709</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.990685874618432</v>
@@ -6344,7 +6236,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.789262031508918</v>
+        <v>1.799261113936754</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.559147722739202</v>
@@ -6433,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.811455778947247</v>
+        <v>1.820105651746946</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.091236965060214</v>
@@ -6522,7 +6414,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.811761024836962</v>
+        <v>1.819415100923944</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.461600736247859</v>
@@ -6611,7 +6503,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.820673733934686</v>
+        <v>1.828243475502925</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.005624070190712</v>
@@ -6700,7 +6592,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.818880960793632</v>
+        <v>1.821739605134888</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.864922726947587</v>
@@ -6789,7 +6681,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.821173122584291</v>
+        <v>1.819240355875372</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.450734915334866</v>
@@ -6878,7 +6770,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.822378968679509</v>
+        <v>1.81597524234845</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.596953497100856</v>
@@ -6967,7 +6859,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.806435844002522</v>
+        <v>1.798457106904489</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.280248938553301</v>
@@ -7056,7 +6948,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.828179624339487</v>
+        <v>1.821137633788579</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.238065007547579</v>
@@ -7145,7 +7037,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.822579069540681</v>
+        <v>1.81500166810976</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.076103644156479</v>
@@ -7234,7 +7126,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.824990408556918</v>
+        <v>1.822438730960264</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.572722928201083</v>
@@ -7323,7 +7215,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.812980413298231</v>
+        <v>1.813334030016345</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.293113527299591</v>
@@ -7412,7 +7304,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.828728602405567</v>
+        <v>1.823781325169472</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.359795935931126</v>
@@ -7501,7 +7393,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.856387407026616</v>
+        <v>1.840725207536499</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.677220270455455</v>
@@ -7590,7 +7482,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.857560672886365</v>
+        <v>1.84082711610855</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.452330509950011</v>
@@ -7679,7 +7571,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.85424951278004</v>
+        <v>1.843207576474362</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.349434096233414</v>
@@ -7768,7 +7660,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.872609351931748</v>
+        <v>1.855931272416434</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.349490813543597</v>
@@ -7857,7 +7749,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.866477015746288</v>
+        <v>1.853183247818761</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.197005338940106</v>
@@ -7946,7 +7838,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.828775034639476</v>
+        <v>1.82364569785329</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.658333530416578</v>
@@ -8035,7 +7927,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.852684785597108</v>
+        <v>1.84214834331718</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.570571582242881</v>
@@ -8124,7 +8016,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.847686243442064</v>
+        <v>1.838487666159116</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.693123155840992</v>
@@ -8213,7 +8105,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.848957899620269</v>
+        <v>1.843378627810286</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.456607369275592</v>
@@ -8302,7 +8194,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.862553778161984</v>
+        <v>1.851282579564611</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.673761049716405</v>
@@ -8391,7 +8283,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.851889864140165</v>
+        <v>1.839940502391987</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.616101444840216</v>
@@ -8480,7 +8372,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.841354999220694</v>
+        <v>1.825649083838603</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.766005081260588</v>
@@ -8569,7 +8461,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.840648319954798</v>
+        <v>1.822388581372586</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.603575142565091</v>
@@ -8658,7 +8550,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.859252522939089</v>
+        <v>1.835896281064311</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.325375586992998</v>
@@ -8747,7 +8639,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.849413989478802</v>
+        <v>1.825854304396789</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.635112961378112</v>
@@ -8836,7 +8728,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.851307436534069</v>
+        <v>1.830017442203111</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.325125731658298</v>
@@ -8925,7 +8817,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.830706942343903</v>
+        <v>1.812486020416594</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.398622838924842</v>
@@ -9014,7 +8906,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.835308628354845</v>
+        <v>1.820836283194717</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.273061964207173</v>
@@ -9103,7 +8995,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.837440526850741</v>
+        <v>1.825575007037543</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.494856993829067</v>
@@ -9192,7 +9084,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.848183253281024</v>
+        <v>1.830823637215458</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.206825191292905</v>
@@ -9281,7 +9173,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.874780541901028</v>
+        <v>1.852502173508224</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.937298325258128</v>
@@ -9370,7 +9262,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.85355752563996</v>
+        <v>1.839692657514725</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.408705712178564</v>
@@ -9459,7 +9351,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.835917376293476</v>
+        <v>1.829019566833402</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.122874424353011</v>
@@ -9548,7 +9440,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.837318841818421</v>
+        <v>1.832911459484155</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.263075762968236</v>
@@ -9637,7 +9529,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.825470982962617</v>
+        <v>1.823908549542286</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.308522348661192</v>
@@ -9726,7 +9618,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.825159391733805</v>
+        <v>1.820786876270553</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.352929295608374</v>
@@ -9815,7 +9707,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.833143185583785</v>
+        <v>1.830327683104489</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.367559570933714</v>
@@ -9904,7 +9796,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.836682484451611</v>
+        <v>1.830134000419619</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.338181273314881</v>
@@ -9993,7 +9885,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.821714976462119</v>
+        <v>1.815722822679998</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.32834786301154</v>
@@ -10082,7 +9974,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.82036134877708</v>
+        <v>1.819046586954729</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.381120530910914</v>
@@ -10171,7 +10063,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.8212440774139</v>
+        <v>1.816787119622037</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.250374999276255</v>
@@ -10260,7 +10152,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.819950009566579</v>
+        <v>1.819602611198402</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.334062108254828</v>
@@ -10349,7 +10241,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.818055473145046</v>
+        <v>1.815779952454384</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.388936208702588</v>
@@ -10438,7 +10330,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.815870868353999</v>
+        <v>1.813407896640336</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.36140525819845</v>
@@ -10527,7 +10419,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.799266726605483</v>
+        <v>1.804831262136468</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.337642520276687</v>
@@ -10616,7 +10508,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.805103365937424</v>
+        <v>1.806841021441826</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.337722539526139</v>
@@ -10705,7 +10597,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.830458087414118</v>
+        <v>1.828179748458301</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.373154364489973</v>
@@ -10794,7 +10686,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.844259855580392</v>
+        <v>1.839232115433779</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.305017750272089</v>
@@ -10883,7 +10775,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.843184968067909</v>
+        <v>1.837007066780199</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.397542966946829</v>
@@ -10972,7 +10864,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.855070196402183</v>
+        <v>1.847660053448697</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.348843836351219</v>
@@ -11061,7 +10953,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.862403928527673</v>
+        <v>1.8571443872831</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.381285931776508</v>
@@ -11150,7 +11042,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.841106852101712</v>
+        <v>1.841066028897723</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.48425378849724</v>
@@ -11239,7 +11131,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.832805510765336</v>
+        <v>1.838244436906861</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.318296128553221</v>
@@ -11328,7 +11220,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.844392825017352</v>
+        <v>1.842281997046697</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.923936477225512</v>
@@ -11417,7 +11309,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.843224379337058</v>
+        <v>1.847555002811222</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.1363352957348</v>
@@ -11506,7 +11398,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.846160670178314</v>
+        <v>1.852697452287949</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.056802850323</v>
@@ -11595,7 +11487,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.856686349868373</v>
+        <v>1.857612453384428</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.710869624984769</v>
@@ -11881,7 +11773,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.622169361247471</v>
+        <v>1.649729745150244</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.026323641638549</v>
@@ -11970,7 +11862,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.642809208031445</v>
+        <v>1.67218826977504</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.06587671788155</v>
@@ -12059,7 +11951,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.645649004868902</v>
+        <v>1.671591421119849</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.939658196264978</v>
@@ -12148,7 +12040,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.617433933613037</v>
+        <v>1.642276774473976</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.648852906999708</v>
@@ -12237,7 +12129,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.618446485619496</v>
+        <v>1.639316828903632</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.894347579963342</v>
@@ -12326,7 +12218,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.607772638805365</v>
+        <v>1.623733421793858</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.891880997247338</v>
@@ -12415,7 +12307,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.600228181709202</v>
+        <v>1.61700549011121</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.859794441166958</v>
@@ -12504,7 +12396,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.608246197209838</v>
+        <v>1.624182498814201</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.737003100836323</v>
@@ -12593,7 +12485,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.603232545401418</v>
+        <v>1.618014131233229</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.607108466838028</v>
@@ -12682,7 +12574,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.602306865478134</v>
+        <v>1.617430717567385</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.494656800834459</v>
@@ -12771,7 +12663,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.59972390812375</v>
+        <v>1.613822231131023</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.736228731778528</v>
@@ -12860,7 +12752,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.62139713936732</v>
+        <v>1.631011891409523</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.213330225657343</v>
@@ -12949,7 +12841,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.617332365907364</v>
+        <v>1.623556956302855</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.190162377947743</v>
@@ -13038,7 +12930,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.610355414719489</v>
+        <v>1.619257582198744</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.358689619508339</v>
@@ -13127,7 +13019,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.607014367246463</v>
+        <v>1.608701892180795</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.02694525191581</v>
@@ -13216,7 +13108,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.60480728460326</v>
+        <v>1.60506282204255</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.734719902226802</v>
@@ -13305,7 +13197,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.60658601677858</v>
+        <v>1.606819818426128</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.333455976264299</v>
@@ -13394,7 +13286,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.600827679637604</v>
+        <v>1.601057991139156</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.001492682997059</v>
@@ -13483,7 +13375,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.628622802425934</v>
+        <v>1.624962450731493</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.989489088379645</v>
@@ -13572,7 +13464,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.640454932486542</v>
+        <v>1.631567708456576</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.209425886070354</v>
@@ -13661,7 +13553,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.646428500647169</v>
+        <v>1.638072749460729</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.430963467449249</v>
@@ -13750,7 +13642,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.639658260080726</v>
+        <v>1.62873589990633</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.526558362535148</v>
@@ -13839,7 +13731,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.638634617000974</v>
+        <v>1.616621970094866</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.22985776378595</v>
@@ -13928,7 +13820,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.627929157976482</v>
+        <v>1.614492518584803</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.317028968284328</v>
@@ -14017,7 +13909,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.618219842449838</v>
+        <v>1.603330840513134</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.022553217667109</v>
@@ -14106,7 +13998,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.60661206097829</v>
+        <v>1.593803813545934</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.243587098971061</v>
@@ -14195,7 +14087,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.612766460809257</v>
+        <v>1.60183467319309</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.785583428962108</v>
@@ -14284,7 +14176,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.611738472022213</v>
+        <v>1.601693569556871</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.909828452947985</v>
@@ -14373,7 +14265,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.603342657116647</v>
+        <v>1.59241618117466</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.87706170092609</v>
@@ -14462,7 +14354,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.6202818810547</v>
+        <v>1.60597171157595</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.848190848177866</v>
@@ -14551,7 +14443,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.616113730791797</v>
+        <v>1.602683942487117</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.310910313537053</v>
@@ -14640,7 +14532,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.609704274776726</v>
+        <v>1.596668475222448</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.01761627819172</v>
@@ -14729,7 +14621,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.611712167509399</v>
+        <v>1.597205096386661</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.818048890190435</v>
@@ -14818,7 +14710,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.601285604005854</v>
+        <v>1.584145965133675</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.351312125211378</v>
@@ -14907,7 +14799,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.587549250492203</v>
+        <v>1.572256120446132</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.220102884649243</v>
@@ -14996,7 +14888,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.594029976124107</v>
+        <v>1.576415351954974</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.995014933536218</v>
@@ -15085,7 +14977,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.601110785723765</v>
+        <v>1.591513064165533</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.970642771250953</v>
@@ -15174,7 +15066,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.602533254644134</v>
+        <v>1.595833192017178</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.092849498212225</v>
@@ -15263,7 +15155,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.614051045446532</v>
+        <v>1.603791711380938</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.235133794220141</v>
@@ -15352,7 +15244,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.616716319659349</v>
+        <v>1.606693616688445</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.236017350301721</v>
@@ -15441,7 +15333,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.623867637471333</v>
+        <v>1.608710473612587</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.308046954064299</v>
@@ -15530,7 +15422,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.626728691763641</v>
+        <v>1.608591101143986</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.277405896873738</v>
@@ -15619,7 +15511,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.631083730963149</v>
+        <v>1.617478694938548</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.19895197325128</v>
@@ -15708,7 +15600,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.650727140088305</v>
+        <v>1.629866242196049</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.264196765440722</v>
@@ -15797,7 +15689,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.641870984032128</v>
+        <v>1.6219800619961</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.240963963860108</v>
@@ -15886,7 +15778,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.650477584482387</v>
+        <v>1.63367010339044</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.238126941444195</v>
@@ -15975,7 +15867,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.661188158931605</v>
+        <v>1.631363258773073</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.315897041337776</v>
@@ -16064,7 +15956,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.655837641947981</v>
+        <v>1.635762555271632</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.237884759394398</v>
@@ -16153,7 +16045,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.663510669273263</v>
+        <v>1.650079730379155</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.159937248686441</v>
@@ -16242,7 +16134,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.669928012438976</v>
+        <v>1.659912701090627</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.318678978638288</v>
@@ -16331,7 +16223,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.677821510640836</v>
+        <v>1.670037839645601</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.330182616386438</v>
@@ -16420,7 +16312,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.666423699919331</v>
+        <v>1.651987670534754</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.240746645260046</v>
@@ -16509,7 +16401,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.65511478585226</v>
+        <v>1.640023843171681</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.238531750612248</v>
@@ -16598,7 +16490,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.645835507727347</v>
+        <v>1.631358755727883</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.463317030973979</v>
@@ -16687,7 +16579,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.645774688852231</v>
+        <v>1.63035259160858</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.298533790481588</v>
@@ -16776,7 +16668,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.629282725967577</v>
+        <v>1.619019550697208</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.142791842612236</v>
@@ -16865,7 +16757,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.63366291206088</v>
+        <v>1.61939647858448</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.190400120766527</v>
@@ -16954,7 +16846,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.607717659666891</v>
+        <v>1.588598436110016</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.088573448410626</v>
@@ -17043,7 +16935,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.599638383387036</v>
+        <v>1.581823635146494</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.867691762268359</v>
@@ -17132,7 +17024,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.610542443537604</v>
+        <v>1.594638993804408</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.986232886969939</v>
@@ -17221,7 +17113,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.594093709872759</v>
+        <v>1.57886985643333</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.819586878806042</v>
@@ -17507,7 +17399,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.833450458323456</v>
+        <v>1.818716141572657</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.959694318807594</v>
@@ -17596,7 +17488,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.833220971692789</v>
+        <v>1.814655825384825</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.154111397459998</v>
@@ -17685,7 +17577,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.84038058313141</v>
+        <v>1.821945451566972</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.015514317212253</v>
@@ -17774,7 +17666,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.837457819984878</v>
+        <v>1.812120408834785</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.250341577024235</v>
@@ -17863,7 +17755,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.84014719401917</v>
+        <v>1.815937640079859</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.845119058435412</v>
@@ -17952,7 +17844,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.830217197456654</v>
+        <v>1.807712819937607</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.955177858738514</v>
@@ -18041,7 +17933,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.831842237344856</v>
+        <v>1.805570228127071</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.01476421744928</v>
@@ -18130,7 +18022,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.826982965469915</v>
+        <v>1.796755306820397</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.708665312221336</v>
@@ -18219,7 +18111,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.824977648549854</v>
+        <v>1.789141499028189</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.673637586423955</v>
@@ -18308,7 +18200,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.82665211160883</v>
+        <v>1.793643124096399</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.321388609541827</v>
@@ -18397,7 +18289,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.827606812993604</v>
+        <v>1.796237322555325</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.157476651736114</v>
@@ -18486,7 +18378,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.82864616106738</v>
+        <v>1.799300273935941</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.545595321892772</v>
@@ -18575,7 +18467,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.826077107068095</v>
+        <v>1.792668108324363</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.27714709094653</v>
@@ -18664,7 +18556,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.826356161452576</v>
+        <v>1.792492906237022</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.40912161579099</v>
@@ -18753,7 +18645,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.821541186551508</v>
+        <v>1.78748889534096</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.026889853125724</v>
@@ -18842,7 +18734,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.814887548117146</v>
+        <v>1.78780650811199</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.724862367318183</v>
@@ -18931,7 +18823,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.807780920477301</v>
+        <v>1.783767319843584</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.997881717502936</v>
@@ -19020,7 +18912,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.804432900565562</v>
+        <v>1.783231286164496</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.498350861458233</v>
@@ -19109,7 +19001,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.803087328359673</v>
+        <v>1.787692041536783</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.020389205910551</v>
@@ -19198,7 +19090,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.804411865270613</v>
+        <v>1.787390304195925</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.336075663447992</v>
@@ -19287,7 +19179,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.800543887270011</v>
+        <v>1.785319982511631</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.55314932006039</v>
@@ -19376,7 +19268,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.786407860819753</v>
+        <v>1.771165964684361</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.494841202450182</v>
@@ -19465,7 +19357,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.793048673029633</v>
+        <v>1.778995470226984</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.469148635398702</v>
@@ -19554,7 +19446,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.79428743571974</v>
+        <v>1.782597965485844</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.547602093176717</v>
@@ -19643,7 +19535,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.794112044266987</v>
+        <v>1.77504409214923</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.142017321770724</v>
@@ -19732,7 +19624,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.79094399919246</v>
+        <v>1.772268328463699</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.358772420692794</v>
@@ -19821,7 +19713,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.790387611393788</v>
+        <v>1.77180423651053</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.304757125494332</v>
@@ -19910,7 +19802,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.781970336854431</v>
+        <v>1.768535149510088</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.771566694806642</v>
@@ -19999,7 +19891,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.764617901985269</v>
+        <v>1.752806741371082</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.118469388799453</v>
@@ -20088,7 +19980,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.765202793663386</v>
+        <v>1.754678025083946</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.924841087079016</v>
@@ -20177,7 +20069,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.768975703137357</v>
+        <v>1.751732249605552</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.38558902618707</v>
@@ -20266,7 +20158,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.771251218555763</v>
+        <v>1.755295776994945</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.443461841874363</v>
@@ -20355,7 +20247,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.778005048321874</v>
+        <v>1.757332812499599</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.464332832427505</v>
@@ -20444,7 +20336,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.775034074373365</v>
+        <v>1.751642627885902</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.941149076100487</v>
@@ -20533,7 +20425,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.762606142079377</v>
+        <v>1.741346074314497</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.327675315327058</v>
@@ -20622,7 +20514,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.765962207491545</v>
+        <v>1.747536173120436</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.937594636019398</v>
@@ -20711,7 +20603,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.771887837547003</v>
+        <v>1.753199170378079</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.361836373460385</v>
@@ -20800,7 +20692,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.770374905618597</v>
+        <v>1.752399995659837</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.417366285787376</v>
@@ -20889,7 +20781,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.769208415528141</v>
+        <v>1.740536758738404</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.898502607017919</v>
@@ -20978,7 +20870,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.765227235759522</v>
+        <v>1.738930349210002</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.877730324358712</v>
@@ -21067,7 +20959,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.766461884564227</v>
+        <v>1.737737532487663</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.681256107546444</v>
@@ -21156,7 +21048,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.769085453050246</v>
+        <v>1.738698638711844</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.879027230890571</v>
@@ -21245,7 +21137,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.770883948356739</v>
+        <v>1.739715149130482</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.766586573411603</v>
@@ -21334,7 +21226,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.786023277326225</v>
+        <v>1.757693621102166</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.95732426877826</v>
@@ -21423,7 +21315,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.788848669986278</v>
+        <v>1.759016689644177</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.949458045424781</v>
@@ -21512,7 +21404,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.785974931703414</v>
+        <v>1.758085251875887</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.831519991874729</v>
@@ -21601,7 +21493,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.777939096842722</v>
+        <v>1.752053526368118</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.979367754398704</v>
@@ -21690,7 +21582,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.776830087387869</v>
+        <v>1.752482413168844</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.965648465283487</v>
@@ -21779,7 +21671,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.780009098034903</v>
+        <v>1.757695061788844</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.877438542041646</v>
@@ -21868,7 +21760,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.801712998902032</v>
+        <v>1.775446578195699</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.745749451080476</v>
@@ -21957,7 +21849,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.808836743216446</v>
+        <v>1.78518006627882</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.946969895568856</v>
@@ -22046,7 +21938,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.806785573622171</v>
+        <v>1.786091503196055</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.920013237199585</v>
@@ -22135,7 +22027,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.804687711613344</v>
+        <v>1.780676451957438</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.963382694967143</v>
@@ -22224,7 +22116,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.804658049394803</v>
+        <v>1.785457926260214</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.672827030324374</v>
@@ -22313,7 +22205,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.804480136826419</v>
+        <v>1.787098356985638</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.800570866769001</v>
@@ -22402,7 +22294,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.797817327394473</v>
+        <v>1.782299490837837</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.550907071232952</v>
@@ -22491,7 +22383,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.788504596976725</v>
+        <v>1.774005748088368</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.792520656274701</v>
@@ -22580,7 +22472,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.782582724097405</v>
+        <v>1.768232905612137</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.151886228159826</v>
@@ -22669,7 +22561,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.771838443782623</v>
+        <v>1.758322941951371</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.527635688872404</v>
@@ -22758,7 +22650,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.772192729561132</v>
+        <v>1.759002057531934</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.813627914463628</v>
@@ -22847,7 +22739,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.76587962848146</v>
+        <v>1.749024619510781</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.963268772235701</v>
@@ -23133,7 +23025,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.796184379243479</v>
+        <v>1.800627835568536</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.774242857736942</v>
@@ -23222,7 +23114,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.801579175723276</v>
+        <v>1.804881253019621</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.500560696854735</v>
@@ -23311,7 +23203,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.821310756960896</v>
+        <v>1.816734962683021</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.241525480972585</v>
@@ -23400,7 +23292,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.812743310501787</v>
+        <v>1.805867244534212</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.738047909425312</v>
@@ -23489,7 +23381,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.820161728699313</v>
+        <v>1.817145067462693</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.710401367685265</v>
@@ -23578,7 +23470,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.825223420996331</v>
+        <v>1.815117879224199</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.136990652840719</v>
@@ -23667,7 +23559,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.828364319778408</v>
+        <v>1.812339191384658</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.182595875345644</v>
@@ -23756,7 +23648,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.823318109820476</v>
+        <v>1.801606956403407</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.030097848645031</v>
@@ -23845,7 +23737,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.82475969343176</v>
+        <v>1.801292641156054</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.061941806070725</v>
@@ -23934,7 +23826,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.830989227975347</v>
+        <v>1.807534754609982</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.802634285008469</v>
@@ -24023,7 +23915,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.832328603260683</v>
+        <v>1.806950824286897</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.09502635266533</v>
@@ -24112,7 +24004,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.831672931286036</v>
+        <v>1.806223773193015</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.993715654360669</v>
@@ -24201,7 +24093,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.825513846370947</v>
+        <v>1.803770959962949</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.580950667815893</v>
@@ -24290,7 +24182,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.834700949874851</v>
+        <v>1.808423950646299</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.051623300227092</v>
@@ -24379,7 +24271,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.849520236482925</v>
+        <v>1.816206548853329</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.977863848173874</v>
@@ -24468,7 +24360,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.84516962560021</v>
+        <v>1.811979520329718</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.805442968716213</v>
@@ -24557,7 +24449,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.842282699222574</v>
+        <v>1.803981482101485</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.377181495376337</v>
@@ -24646,7 +24538,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.848891731966314</v>
+        <v>1.807610627398208</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.886599258135231</v>
@@ -24735,7 +24627,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.848032803472148</v>
+        <v>1.806084896318031</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.999301748018828</v>
@@ -24824,7 +24716,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.832478233327877</v>
+        <v>1.788588792421142</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.204022560254553</v>
@@ -24913,7 +24805,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.838355387075762</v>
+        <v>1.794569174758552</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.064553784527088</v>
@@ -25002,7 +24894,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.832833087542168</v>
+        <v>1.787551327373227</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.176771634393673</v>
@@ -25091,7 +24983,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.828178980906579</v>
+        <v>1.782921793100354</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.004298871141743</v>
@@ -25180,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.830005956132604</v>
+        <v>1.7802782592944</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.851765274380279</v>
@@ -25269,7 +25161,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.827871082260504</v>
+        <v>1.774470915202924</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.674899397563931</v>
@@ -25358,7 +25250,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.818987629458203</v>
+        <v>1.763166421198336</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.704598376869894</v>
@@ -25447,7 +25339,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.814002614333546</v>
+        <v>1.754009452731618</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.570199091444285</v>
@@ -25536,7 +25428,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.820978051344572</v>
+        <v>1.759764035872859</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.552977370976734</v>
@@ -25625,7 +25517,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.813615081008384</v>
+        <v>1.755820667632728</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.748162150327501</v>
@@ -25714,7 +25606,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.811196425284016</v>
+        <v>1.75980410759367</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.011537402555756</v>
@@ -25803,7 +25695,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.800145105595141</v>
+        <v>1.749696021924988</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.687992510599456</v>
@@ -25892,7 +25784,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.804275657920613</v>
+        <v>1.759560530561621</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.936386184853271</v>
@@ -25981,7 +25873,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.804076139208081</v>
+        <v>1.765544000481019</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.735884513989996</v>
@@ -26070,7 +25962,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.81290564393262</v>
+        <v>1.772580099858399</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.637935939464008</v>
@@ -26159,7 +26051,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.825063294979738</v>
+        <v>1.789373141528406</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.123510763863454</v>
@@ -26248,7 +26140,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.820803525745458</v>
+        <v>1.78333845032536</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.947434029702257</v>
@@ -26337,7 +26229,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.809789712815914</v>
+        <v>1.776852471242257</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.925508166822939</v>
@@ -26426,7 +26318,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.816680951973394</v>
+        <v>1.78494204972486</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.899830321979981</v>
@@ -26515,7 +26407,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.811160852245957</v>
+        <v>1.781871925565069</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.122031778158591</v>
@@ -26604,7 +26496,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.814726349171652</v>
+        <v>1.78744141191694</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.103379671846893</v>
@@ -26693,7 +26585,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.814525806318518</v>
+        <v>1.78367474960512</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.920139362020203</v>
@@ -26782,7 +26674,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.819480045599033</v>
+        <v>1.789365939155817</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.950029916008948</v>
@@ -26871,7 +26763,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.800157571676256</v>
+        <v>1.769347837311916</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.988591058217724</v>
@@ -26960,7 +26852,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.803842770079781</v>
+        <v>1.774834209329068</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.022455625035559</v>
@@ -27049,7 +26941,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.804402396515114</v>
+        <v>1.770557851320736</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.766490412197867</v>
@@ -27138,7 +27030,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.807018144412469</v>
+        <v>1.769383196997933</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.958099880776883</v>
@@ -27227,7 +27119,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.798886001912933</v>
+        <v>1.75819254456323</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.062126714692921</v>
@@ -27316,7 +27208,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.801136950057783</v>
+        <v>1.762701462889766</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.869803826467435</v>
@@ -27405,7 +27297,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.793814416762183</v>
+        <v>1.76329057430899</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.040961213358959</v>
@@ -27494,7 +27386,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.80033804330694</v>
+        <v>1.766300349882448</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.938842462546088</v>
@@ -27583,7 +27475,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.808600350883823</v>
+        <v>1.778651163182733</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.02344256677986</v>
@@ -27672,7 +27564,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.817642984781958</v>
+        <v>1.783515051892811</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.879604777463171</v>
@@ -27761,7 +27653,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.809377173061143</v>
+        <v>1.773349176838081</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.036999237198067</v>
@@ -27850,7 +27742,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.813358565255306</v>
+        <v>1.770573661246812</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.688938538689233</v>
@@ -27939,7 +27831,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.81146316330369</v>
+        <v>1.772116776911981</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.364894054562746</v>
@@ -28028,7 +27920,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.808528810375042</v>
+        <v>1.777294471821518</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.154925350818843</v>
@@ -28117,7 +28009,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.810060462157439</v>
+        <v>1.778892834102642</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.365989785501428</v>
@@ -28206,7 +28098,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.819437205799506</v>
+        <v>1.79034718812447</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.466097148614716</v>
@@ -28295,7 +28187,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.819932163813009</v>
+        <v>1.781589506782981</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.756872309330801</v>
@@ -28384,7 +28276,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.807572307358507</v>
+        <v>1.776560337275729</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.143639260591391</v>
@@ -28473,7 +28365,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.799330044760903</v>
+        <v>1.768682649988329</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.965943769722933</v>
@@ -28759,7 +28651,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.514926490329981</v>
+        <v>1.541265583735068</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.85848119217373</v>
@@ -28848,7 +28740,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.51676861610579</v>
+        <v>1.548893179939961</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.517972842802946</v>
@@ -28937,7 +28829,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.532987329673313</v>
+        <v>1.559472482726929</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.675619804917565</v>
@@ -29026,7 +28918,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.541518592210421</v>
+        <v>1.56219857841101</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.651155116928869</v>
@@ -29115,7 +29007,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.554738437650707</v>
+        <v>1.563204117276078</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.986705737898655</v>
@@ -29204,7 +29096,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.544996745532718</v>
+        <v>1.554728039663073</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.791538077471466</v>
@@ -29293,7 +29185,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.547937212878234</v>
+        <v>1.555464092940194</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.932868272549322</v>
@@ -29382,7 +29274,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.539723611192987</v>
+        <v>1.546180403591446</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.910372784249536</v>
@@ -29471,7 +29363,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.514771475874425</v>
+        <v>1.522878964738871</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.61376684319235</v>
@@ -29560,7 +29452,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.524138207099257</v>
+        <v>1.530680379742193</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.034275984276119</v>
@@ -29649,7 +29541,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.508904409471226</v>
+        <v>1.515805720952403</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.948623503728257</v>
@@ -29738,7 +29630,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.525409173956855</v>
+        <v>1.532890194310458</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.966575426975735</v>
@@ -29827,7 +29719,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.522660241413699</v>
+        <v>1.52944127596463</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.977424647139082</v>
@@ -29916,7 +29808,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.526355400451104</v>
+        <v>1.532211507417713</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.105373120719412</v>
@@ -30005,7 +29897,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.524333797843639</v>
+        <v>1.532630818308823</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.974946641904459</v>
@@ -30094,7 +29986,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.529973735057239</v>
+        <v>1.538184131657594</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.769330732588338</v>
@@ -30183,7 +30075,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.538131734563592</v>
+        <v>1.549165150923945</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.787990678406587</v>
@@ -30272,7 +30164,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.552900700114389</v>
+        <v>1.565585631893853</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.122554355834826</v>
@@ -30361,7 +30253,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.574660245554169</v>
+        <v>1.58446032830961</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.956026178347425</v>
@@ -30450,7 +30342,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.572381379774136</v>
+        <v>1.586480455177237</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.013161480106065</v>
@@ -30539,7 +30431,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.581665058197372</v>
+        <v>1.593631103087942</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.205526424128879</v>
@@ -30628,7 +30520,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.579865566456959</v>
+        <v>1.59443410176436</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.101084125932291</v>
@@ -30717,7 +30609,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.591263317820595</v>
+        <v>1.60140270468378</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.9788678186671</v>
@@ -30806,7 +30698,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.599850862040933</v>
+        <v>1.615021279228799</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.269456509753797</v>
@@ -30895,7 +30787,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.600643515243703</v>
+        <v>1.615798905451816</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.405549502416135</v>
@@ -30984,7 +30876,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.608155177681994</v>
+        <v>1.620572491297717</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.371428163410457</v>
@@ -31073,7 +30965,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.614896432926053</v>
+        <v>1.618437825404294</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.371373326829099</v>
@@ -31162,7 +31054,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.614619296280184</v>
+        <v>1.62089619457856</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.084406592239068</v>
@@ -31251,7 +31143,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.615676793365253</v>
+        <v>1.622584308616661</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.078232410710595</v>
@@ -31340,7 +31232,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.617477919266542</v>
+        <v>1.614110853786995</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.929300471074225</v>
@@ -31429,7 +31321,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.621436024312365</v>
+        <v>1.620005719324636</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.904026448244869</v>
@@ -31518,7 +31410,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.629425957935837</v>
+        <v>1.624320546288314</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.08835678128968</v>
@@ -31607,7 +31499,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.617209656555728</v>
+        <v>1.614150898924136</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.309612581397126</v>
@@ -31696,7 +31588,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.608208140355632</v>
+        <v>1.605922813150521</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.967934271143942</v>
@@ -31785,7 +31677,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.603250314434414</v>
+        <v>1.599860215435492</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.236974459041224</v>
@@ -31874,7 +31766,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.602086619793274</v>
+        <v>1.598782737565525</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.033972806268482</v>
@@ -31963,7 +31855,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.610811319804384</v>
+        <v>1.604674495450801</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.788020152789142</v>
@@ -32052,7 +31944,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.621284387343882</v>
+        <v>1.620514066906457</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.272187224862318</v>
@@ -32141,7 +32033,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.628344351856933</v>
+        <v>1.624980864515347</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.880306590340754</v>
@@ -32230,7 +32122,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.629620176842726</v>
+        <v>1.62708362512197</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.913239369897786</v>
@@ -32319,7 +32211,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.639886178786161</v>
+        <v>1.637555835634425</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.19907854829695</v>
@@ -32408,7 +32300,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.644185083373967</v>
+        <v>1.646385473656798</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.727654714589312</v>
@@ -32497,7 +32389,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.65131151254201</v>
+        <v>1.651256032928036</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.950056204349267</v>
@@ -32586,7 +32478,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.644425218620485</v>
+        <v>1.652543187371401</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.999853640917758</v>
@@ -32675,7 +32567,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.647280365214922</v>
+        <v>1.654573239060908</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.375222115377796</v>
@@ -32764,7 +32656,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.639399271232341</v>
+        <v>1.648296227419931</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.395252863786884</v>
@@ -32853,7 +32745,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.637798556463163</v>
+        <v>1.639413230140001</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.962187998560159</v>
@@ -32942,7 +32834,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.641886038060625</v>
+        <v>1.649288286595471</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.191823266528484</v>
@@ -33031,7 +32923,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.645794272033096</v>
+        <v>1.650659768189441</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.740114213135684</v>
@@ -33120,7 +33012,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.657124398813128</v>
+        <v>1.66090098070009</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.94394832663958</v>
@@ -33209,7 +33101,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.657239833757679</v>
+        <v>1.663261263645971</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.033917734796961</v>
@@ -33298,7 +33190,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.658595656186079</v>
+        <v>1.662565263229317</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.119439689070263</v>
@@ -33387,7 +33279,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.654396437595696</v>
+        <v>1.65744627607923</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.109319452134859</v>
@@ -33476,7 +33368,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.643825902703785</v>
+        <v>1.648671020672474</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.462999086469337</v>
@@ -33565,7 +33457,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.633921673152396</v>
+        <v>1.631955850084444</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.121586475198428</v>
@@ -33654,7 +33546,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.616215464774382</v>
+        <v>1.61806977801489</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.201893488962122</v>
@@ -33743,7 +33635,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.592759060058681</v>
+        <v>1.596522715668423</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.389091503675856</v>
@@ -33832,7 +33724,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.389325957213044</v>
+        <v>1.401733718011828</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.645616709547997</v>
@@ -33921,7 +33813,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.351305193786539</v>
+        <v>1.36134151640455</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.666475949438963</v>
@@ -34010,7 +33902,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.333330126801151</v>
+        <v>1.338300331422252</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.683858709914792</v>
@@ -34099,7 +33991,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.319277545342718</v>
+        <v>1.323968248688236</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.695894152196229</v>
@@ -34385,7 +34277,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.671537418934186</v>
+        <v>1.700984951162427</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.558468205689836</v>
@@ -34474,7 +34366,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.680281939378542</v>
+        <v>1.707371925136142</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.359535760448461</v>
@@ -34563,7 +34455,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.697563453120801</v>
+        <v>1.722968560978687</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.477643700094467</v>
@@ -34652,7 +34544,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.697034483903519</v>
+        <v>1.721998660976246</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.596775238880252</v>
@@ -34741,7 +34633,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.709591547648883</v>
+        <v>1.736133627366234</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.460738130964504</v>
@@ -34830,7 +34722,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.720038752353001</v>
+        <v>1.744628866497706</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.563300827876582</v>
@@ -34919,7 +34811,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.728795587391744</v>
+        <v>1.753207497433609</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.659022319416455</v>
@@ -35008,7 +34900,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.727776021278235</v>
+        <v>1.750257404697515</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.891459127323127</v>
@@ -35097,7 +34989,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.709606215972169</v>
+        <v>1.735187863499988</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.583816148970524</v>
@@ -35186,7 +35078,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.736058601054282</v>
+        <v>1.76065213649161</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.45902955223557</v>
@@ -35275,7 +35167,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.737534124383307</v>
+        <v>1.761227725796556</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.688699926124651</v>
@@ -35364,7 +35256,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.738327230104705</v>
+        <v>1.761047674467521</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.774150720574152</v>
@@ -35453,7 +35345,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.713095382990961</v>
+        <v>1.736314198069488</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.78035824733574</v>
@@ -35542,7 +35434,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.732222457474902</v>
+        <v>1.753873573881932</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.709817363609128</v>
@@ -35631,7 +35523,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.781099432970337</v>
+        <v>1.789396360250908</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.293536496207806</v>
@@ -35720,7 +35612,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.774847492758364</v>
+        <v>1.787336659017457</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.941817374486733</v>
@@ -35809,7 +35701,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.770861210713731</v>
+        <v>1.779679999275309</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.887942685176796</v>
@@ -35898,7 +35790,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.793975342906629</v>
+        <v>1.797449510223075</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.742950627672749</v>
@@ -35987,7 +35879,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.797281612441531</v>
+        <v>1.797029154867446</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.932269759570754</v>
@@ -36076,7 +35968,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.742713085310249</v>
+        <v>1.751688017329539</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.165056009575958</v>
@@ -36165,7 +36057,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.764364897802928</v>
+        <v>1.767170888888204</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.182261488591247</v>
@@ -36254,7 +36146,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.764124999077501</v>
+        <v>1.766228433489895</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.235093775713992</v>
@@ -36343,7 +36235,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.762747725757867</v>
+        <v>1.769946049076234</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.892637348842237</v>
@@ -36432,7 +36324,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.781397051953065</v>
+        <v>1.783916559309594</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.031218080617231</v>
@@ -36521,7 +36413,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.775673221512165</v>
+        <v>1.776666825686726</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.8755309503804</v>
@@ -36610,7 +36502,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.748416264855859</v>
+        <v>1.746782343864914</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.964134871415603</v>
@@ -36699,7 +36591,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.737569449036389</v>
+        <v>1.739041264240179</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.953039566914605</v>
@@ -36788,7 +36680,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.768634310440624</v>
+        <v>1.766000511600698</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.654310638483469</v>
@@ -36877,7 +36769,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.77008421539116</v>
+        <v>1.766347277715288</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.087554724710472</v>
@@ -36966,7 +36858,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.77156479493891</v>
+        <v>1.775535870331732</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.912301461262716</v>
@@ -37055,7 +36947,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.738355447478273</v>
+        <v>1.746599029676866</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.724508257511816</v>
@@ -37144,7 +37036,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.742328434138994</v>
+        <v>1.750238897779685</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.911353778111339</v>
@@ -37233,7 +37125,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.744152187844867</v>
+        <v>1.751471607967219</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.834476633769744</v>
@@ -37322,7 +37214,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.759433435972024</v>
+        <v>1.758529086814839</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.678094598241302</v>
@@ -37411,7 +37303,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.804663246932252</v>
+        <v>1.795063327516044</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.452012086364642</v>
@@ -37500,7 +37392,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.781352259398384</v>
+        <v>1.782414982135952</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.819476147995847</v>
@@ -37589,7 +37481,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.750636635099212</v>
+        <v>1.757184260487135</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.963580137950717</v>
@@ -37678,7 +37570,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.74825489140073</v>
+        <v>1.754564545220811</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.685251460268983</v>
@@ -37767,7 +37659,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.728327976578372</v>
+        <v>1.739991805179681</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.860469765254257</v>
@@ -37856,7 +37748,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.730285685292873</v>
+        <v>1.742646979109535</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.834179294657151</v>
@@ -37945,7 +37837,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.738460918419987</v>
+        <v>1.753855304746964</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.871528788178167</v>
@@ -38034,7 +37926,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.747954512329396</v>
+        <v>1.761527722913523</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.84384158130435</v>
@@ -38123,7 +38015,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.718622830187534</v>
+        <v>1.731731308337579</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.83392624704984</v>
@@ -38212,7 +38104,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.709726000271987</v>
+        <v>1.729763953371241</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.81753406783685</v>
@@ -38301,7 +38193,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.713850250590226</v>
+        <v>1.724446559772891</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.497913512212107</v>
@@ -38390,7 +38282,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.712228346464108</v>
+        <v>1.726900584179594</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.946956025822883</v>
@@ -38479,7 +38371,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.710906601573463</v>
+        <v>1.727126153054608</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.831839025840787</v>
@@ -38568,7 +38460,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.712385941811888</v>
+        <v>1.728645921089967</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.805741689806358</v>
@@ -38657,7 +38549,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.684205246139797</v>
+        <v>1.707972279612413</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.887073080425968</v>
@@ -38746,7 +38638,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.688956322017346</v>
+        <v>1.712532769792862</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.749730223292699</v>
@@ -38835,7 +38727,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.72236962973155</v>
+        <v>1.745276423505318</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.930213580446295</v>
@@ -38924,7 +38816,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.747972482106234</v>
+        <v>1.767732584365985</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.149420771935376</v>
@@ -39013,7 +38905,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.750418360988452</v>
+        <v>1.766951012113665</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.887836993876527</v>
@@ -39102,7 +38994,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.758301300693134</v>
+        <v>1.770915591571487</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.868903150398424</v>
@@ -39191,7 +39083,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.756166919045746</v>
+        <v>1.772056466635381</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.667124130189146</v>
@@ -39280,7 +39172,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.732900018148789</v>
+        <v>1.755437945805064</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.923300912166416</v>
@@ -39369,7 +39261,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.732078812415777</v>
+        <v>1.756664571656478</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.939856714759267</v>
@@ -39458,7 +39350,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.763785300304204</v>
+        <v>1.775555519582376</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.59902244694031</v>
@@ -39547,7 +39439,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.766135319964927</v>
+        <v>1.780054634569314</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.945910586071688</v>
@@ -39636,7 +39528,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.765349198294232</v>
+        <v>1.781431104448753</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.755692686934934</v>
@@ -39725,7 +39617,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.775056944230556</v>
+        <v>1.774197096479902</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.033462200547265</v>
